--- a/PV_ICE/baselines/SupportingMaterial/Wambach-USAInstalls-History.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/Wambach-USAInstalls-History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9E38663-07AB-49B4-8C29-8D029E1E3222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9B205C-2969-4689-921B-0231CB3798D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30810" yWindow="-690" windowWidth="21855" windowHeight="13845" xr2:uid="{71D29972-8EF8-4D85-8B2E-06CFD5F04222}"/>
+    <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{71D29972-8EF8-4D85-8B2E-06CFD5F04222}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>GW Installed Annually Wambach</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>MW Installed Annually Wambach</t>
+  </si>
+  <si>
+    <t>Cumulative Installs - Wambach</t>
+  </si>
+  <si>
+    <t>Cumulative Installs PV ICE</t>
+  </si>
+  <si>
+    <t>PV ICE Installs of c-Si</t>
+  </si>
+  <si>
+    <t>Cumulative Installs PV ICE c-Si</t>
   </si>
 </sst>
 </file>
@@ -95,6 +107,2985 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Annual Installations Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MW Installed Annually Wambach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59999999999999987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99999999999999911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.899999999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>102.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>145.00000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>206.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>338.00000000000006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>447.00000000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1766</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2262</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2968.9999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4432</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5272</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7356.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14762</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC15-46EF-A5E8-D89416722D88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV ICE Installs of c-Si</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$12:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$12:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6676666670000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.781000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.884666670000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.926666669999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.984999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.744999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.751999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96.581173219999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.21307161</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>324.23274839999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>314.58510869999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>431.24480390000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>719.84443759999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1781.377078</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3064.1622809999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4037.4491130000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3722.1994850000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6834.3288130000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12897.665950000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DC15-46EF-A5E8-D89416722D88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="630418712"/>
+        <c:axId val="630416088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="630418712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630416088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="630416088"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nameplate Installations [MW/yr]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630418712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cumulative Installations Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15380050542009385"/>
+          <c:y val="9.9336593225521783E-2"/>
+          <c:w val="0.78377074612885289"/>
+          <c:h val="0.68880402728047574"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumulative Installs - Wambach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>117.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>138.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>167.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>212.09999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>275.09999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>375.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>478.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>623.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>830.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1168.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1615.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3381.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5643.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8612.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13044.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18316.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25673.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40435.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-91F0-497D-9DEE-451D578C772F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumulative Installs PV ICE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.705882352941178</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.674763552871976</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.407957121025859</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69.634067201206889</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>101.78674573083164</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>144.36872047156663</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>202.76908290772548</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>288.52362695026528</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>409.72779641207683</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>593.50564283773747</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>811.86684242086756</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1070.6822518010208</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1641.0764708247304</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2300.7783288526239</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3214.1448620619108</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4628.2227054846016</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7540.7056276289441</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12476.315186622289</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19427.957999555634</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27235.479393594866</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40082.127301876317</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62329.168531619202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-91F0-497D-9DEE-451D578C772F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumulative Installs PV ICE c-Si</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.167666666999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.789666666999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.570666666999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62.455333336999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>83.382000007000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>111.367000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>153.843000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>213.58800000700001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>308.34000000700001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>404.921173227</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>503.13424483699998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>827.36699323699997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1141.952101937</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1573.196905837</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2293.0413434370003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4074.4184214370002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7138.5807024370006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11176.029815437001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14898.229300437</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21732.558113437</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34630.224063437003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-91F0-497D-9DEE-451D578C772F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="674933864"/>
+        <c:axId val="674933536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="674933864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674933536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="674933536"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674933864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.4583613851242569E-2"/>
+          <c:y val="0.84461967894186318"/>
+          <c:w val="0.92339782805959669"/>
+          <c:h val="0.15538032105813682"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>469899</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>44451</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D2FAEFC-35DF-4C0E-A840-DA1506BCAC13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>96836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627BB582-A491-4388-9EA6-A5B54B696219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,15 +3385,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589DFF7B-0BD0-4E1D-889F-09C4BF5FB7C1}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C33"/>
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -412,8 +3403,20 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1985</v>
       </c>
@@ -424,8 +3427,20 @@
         <f>B2*1000</f>
         <v>7</v>
       </c>
+      <c r="E2">
+        <f>C2</f>
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <f>D2</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>D2/0.85</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1986</v>
       </c>
@@ -436,8 +3451,20 @@
         <f t="shared" ref="C3:C33" si="0">B3*1000</f>
         <v>0.59999999999999987</v>
       </c>
+      <c r="E3">
+        <f>E2+C3</f>
+        <v>7.6</v>
+      </c>
+      <c r="F3">
+        <f>F2+D3</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>(G2+D3)/0.85</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1987</v>
       </c>
@@ -448,8 +3475,20 @@
         <f t="shared" si="0"/>
         <v>0.99999999999999911</v>
       </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E33" si="1">E3+C4</f>
+        <v>8.5999999999999979</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F33" si="2">F3+D4</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G33" si="3">(G3+D4)/0.85</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1988</v>
       </c>
@@ -460,8 +3499,20 @@
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>11.199999999999998</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1989</v>
       </c>
@@ -472,8 +3523,20 @@
         <f t="shared" si="0"/>
         <v>2.8000000000000003</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>13.999999999999998</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1990</v>
       </c>
@@ -484,8 +3547,20 @@
         <f t="shared" si="0"/>
         <v>1.599999999999999</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>15.599999999999998</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1991</v>
       </c>
@@ -496,8 +3571,20 @@
         <f t="shared" si="0"/>
         <v>0.50000000000000044</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>16.099999999999998</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1992</v>
       </c>
@@ -508,8 +3595,20 @@
         <f t="shared" si="0"/>
         <v>27.299999999999997</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>43.399999999999991</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1993</v>
       </c>
@@ -520,8 +3619,20 @@
         <f t="shared" si="0"/>
         <v>6.8000000000000007</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>50.199999999999989</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1994</v>
       </c>
@@ -532,8 +3643,20 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>57.699999999999989</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1995</v>
       </c>
@@ -544,8 +3667,23 @@
         <f t="shared" si="0"/>
         <v>9.0000000000000018</v>
       </c>
+      <c r="D12">
+        <v>12.5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>66.699999999999989</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>14.705882352941178</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1996</v>
       </c>
@@ -556,8 +3694,23 @@
         <f t="shared" si="0"/>
         <v>9.7000000000000011</v>
       </c>
+      <c r="D13">
+        <v>9.6676666670000007</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>76.399999999999991</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>22.167666666999999</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>28.674763552871976</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1997</v>
       </c>
@@ -568,8 +3721,23 @@
         <f t="shared" si="0"/>
         <v>11.700000000000003</v>
       </c>
+      <c r="D14">
+        <v>11.622</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>88.1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>33.789666666999999</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>47.407957121025859</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1998</v>
       </c>
@@ -580,8 +3748,23 @@
         <f t="shared" si="0"/>
         <v>11.899999999999993</v>
       </c>
+      <c r="D15">
+        <v>11.781000000000001</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>45.570666666999998</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>69.634067201206889</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1999</v>
       </c>
@@ -592,8 +3775,23 @@
         <f t="shared" si="0"/>
         <v>17.200000000000006</v>
       </c>
+      <c r="D16">
+        <v>16.884666670000001</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>117.19999999999999</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>62.455333336999999</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>101.78674573083164</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2000</v>
       </c>
@@ -604,8 +3802,23 @@
         <f t="shared" si="0"/>
         <v>21.500000000000004</v>
       </c>
+      <c r="D17">
+        <v>20.926666669999999</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>138.69999999999999</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>83.382000007000002</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>144.36872047156663</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2001</v>
       </c>
@@ -616,8 +3829,23 @@
         <f t="shared" si="0"/>
         <v>28.999999999999996</v>
       </c>
+      <c r="D18">
+        <v>27.984999999999999</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>167.7</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>111.367000007</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>202.76908290772548</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2002</v>
       </c>
@@ -628,8 +3856,23 @@
         <f t="shared" si="0"/>
         <v>44.399999999999991</v>
       </c>
+      <c r="D19">
+        <v>42.475999999999999</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>212.09999999999997</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>153.843000007</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>288.52362695026528</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2003</v>
       </c>
@@ -640,8 +3883,23 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
+      <c r="D20">
+        <v>59.744999999999997</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>275.09999999999997</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>213.58800000700001</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>409.72779641207683</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2004</v>
       </c>
@@ -652,8 +3910,23 @@
         <f t="shared" si="0"/>
         <v>100.8</v>
       </c>
+      <c r="D21">
+        <v>94.751999999999995</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>375.9</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>308.34000000700001</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>593.50564283773747</v>
+      </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2005</v>
       </c>
@@ -664,8 +3937,23 @@
         <f t="shared" si="0"/>
         <v>102.99999999999999</v>
       </c>
+      <c r="D22">
+        <v>96.581173219999997</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>478.9</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>404.921173227</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>811.86684242086756</v>
+      </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2006</v>
       </c>
@@ -676,8 +3964,23 @@
         <f t="shared" si="0"/>
         <v>145.00000000000003</v>
       </c>
+      <c r="D23">
+        <v>98.21307161</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>623.9</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>503.13424483699998</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>1070.6822518010208</v>
+      </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2007</v>
       </c>
@@ -688,8 +3991,23 @@
         <f t="shared" si="0"/>
         <v>206.99999999999997</v>
       </c>
+      <c r="D24">
+        <v>324.23274839999999</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>830.9</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>827.36699323699997</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>1641.0764708247304</v>
+      </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2008</v>
       </c>
@@ -700,8 +4018,23 @@
         <f t="shared" si="0"/>
         <v>338.00000000000006</v>
       </c>
+      <c r="D25">
+        <v>314.58510869999998</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>1168.9000000000001</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>1141.952101937</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>2300.7783288526239</v>
+      </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2009</v>
       </c>
@@ -712,8 +4045,23 @@
         <f t="shared" si="0"/>
         <v>447.00000000000006</v>
       </c>
+      <c r="D26">
+        <v>431.24480390000002</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1615.9</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>1573.196905837</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>3214.1448620619108</v>
+      </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2010</v>
       </c>
@@ -724,8 +4072,23 @@
         <f t="shared" si="0"/>
         <v>1766</v>
       </c>
+      <c r="D27">
+        <v>719.84443759999999</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>3381.9</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>2293.0413434370003</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>4628.2227054846016</v>
+      </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2011</v>
       </c>
@@ -736,8 +4099,23 @@
         <f t="shared" si="0"/>
         <v>2262</v>
       </c>
+      <c r="D28">
+        <v>1781.377078</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>5643.9</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>4074.4184214370002</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>7540.7056276289441</v>
+      </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2012</v>
       </c>
@@ -748,8 +4126,23 @@
         <f t="shared" si="0"/>
         <v>2968.9999999999995</v>
       </c>
+      <c r="D29">
+        <v>3064.1622809999999</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>8612.9</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>7138.5807024370006</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>12476.315186622289</v>
+      </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -760,8 +4153,23 @@
         <f t="shared" si="0"/>
         <v>4432</v>
       </c>
+      <c r="D30">
+        <v>4037.4491130000001</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>13044.9</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>11176.029815437001</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>19427.957999555634</v>
+      </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -772,8 +4180,23 @@
         <f t="shared" si="0"/>
         <v>5272</v>
       </c>
+      <c r="D31">
+        <v>3722.1994850000001</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>18316.900000000001</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>14898.229300437</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>27235.479393594866</v>
+      </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2015</v>
       </c>
@@ -784,8 +4207,23 @@
         <f t="shared" si="0"/>
         <v>7356.9999999999991</v>
       </c>
+      <c r="D32">
+        <v>6834.3288130000001</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>25673.9</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>21732.558113437</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>40082.127301876317</v>
+      </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2016</v>
       </c>
@@ -796,8 +4234,24 @@
         <f t="shared" si="0"/>
         <v>14762</v>
       </c>
+      <c r="D33">
+        <v>12897.665950000001</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>40435.9</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>34630.224063437003</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>62329.168531619202</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>